--- a/data/trans_bre/P36_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P36_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>111,39%</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>139,39%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>43,17%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-37,13%</t>
         </is>
       </c>
     </row>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,3</t>
+          <t>-2,36; 1,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,75</t>
+          <t>-1,6; 2,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,17</t>
+          <t>0,42; 4,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-78,48; —</t>
+          <t>-4,23; 1,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-83,38%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-89,5%</t>
+          <t>-75,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-85,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-40,2%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -1,28</t>
+          <t>-6,46; -0,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -0,59</t>
+          <t>-6,35; 0,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,67</t>
+          <t>-7,02; -0,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 2,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 89,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,22 +820,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -790,6 +846,16 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 3,56</t>
+          <t>0,0; 13,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,79</t>
+          <t>0,0; 17,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,8</t>
+          <t>0,0; 15,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 8,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-59,58%</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,59%</t>
+          <t>-41,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>-30,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,45%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-32,3%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,07</t>
+          <t>-2,32; 0,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,05</t>
+          <t>-2,68; 1,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,5</t>
+          <t>-1,79; 1,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 25,6</t>
+          <t>-2,52; 1,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 115,47</t>
+          <t>-100,0; 358,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,35; 359,56</t>
+          <t>-85,43; 142,19</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-80,83; 331,58</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-88,03; 167,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P36_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P36_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,169 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>43,17%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-37,13%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1146959135625389</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3869837661340169</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.675524579062926</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.8819747195323748</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1124511697991132</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4027607855777506</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4310837365488407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 1,56</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 2,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 4,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 1,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.14486492518091</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.579310828888284</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.4151978701535656</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.920667430413901</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.394575414790394</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.27296612023676</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.059694084487544</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.496625325235774</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-75,33%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-85,44%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-40,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; -0,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 0,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; -0,44</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 2,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.954015929339476</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.743293129821759</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.779747410594692</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.4967186468055838</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.749125259337163</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.8617666541066311</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3964585721334493</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.483860477515296</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.417614083310172</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.752759861189345</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.009796110172696</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 8,58</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.5244879051948589</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5280589323290673</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.4737431602936186</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.670525744098225</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +797,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-41,64%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-30,65%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,45%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-32,3%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.587744132791839</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.671971562816586</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.460006042524582</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1102743105382966</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.05057042741472863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 0,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 1,65</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; 1,01</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 358,85</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-85,43; 142,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-80,83; 331,58</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-88,03; 167,42</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.085206267021648</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.83946395611779</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.89114971648148</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.32791370110405</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.52765920434543</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.5838791234221743</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.7485491056992947</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.09979415485368952</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.6148621687949052</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.4472415328515627</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3637291766394949</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.0734483718139748</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3539181203958238</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.15124577303185</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.84659565992481</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.836599926164857</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.588252211381905</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.868533584926326</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8208785323744051</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.8771127961508489</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.7377770470421753</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.058422330131514</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.446771788186815</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.875971683922115</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.625791702666146</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.217255111084285</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.045670316519234</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.666180252916307</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +985,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
